--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>749336.7849200651</v>
+        <v>773938.2457049255</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>165.1509275483508</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>47.29627918133471</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -893,65 +893,65 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,28 +975,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>8.172609644471894</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>29.62959951041824</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>43.67660021802678</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I11" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,16 +1452,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -1470,7 +1470,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="S12" t="n">
-        <v>84.74805057896313</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,25 +1844,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>110.0817264605106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2081,67 +2081,67 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>218.2545356023572</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>53.49507230234266</v>
       </c>
     </row>
     <row r="22">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>83.03189205754171</v>
       </c>
       <c r="C24" t="n">
-        <v>13.36070629151663</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>69.07603338353873</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>97.48188567889162</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>232.8330857361503</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>15.78865291772223</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>84.84103413332343</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3071,16 +3071,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.265316057196634</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41964442677787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>66.86520245624389</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,19 +3308,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110.1497834296626</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>142.8009741436498</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>10.5133444998303</v>
       </c>
       <c r="H39" t="n">
-        <v>93.26818484814629</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="D41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>18.37270108173896</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3977,7 +3977,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>205.5178444382804</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4056,13 +4056,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>47.57501573955479</v>
       </c>
       <c r="E45" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4355,25 +4355,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>443.6989813239244</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245.4718821152904</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C3" t="n">
-        <v>245.4718821152904</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>245.4718821152904</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>245.4718821152904</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>245.4718821152904</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
         <v>16.44142755506243</v>
@@ -4413,16 +4413,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>752.1869855945927</v>
-      </c>
-      <c r="O3" t="n">
-        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4434,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>655.2522590174137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>453.0656643761797</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>245.4718821152904</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>245.4718821152904</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="W3" t="n">
-        <v>245.4718821152904</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="X3" t="n">
-        <v>245.4718821152904</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y3" t="n">
-        <v>245.4718821152904</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="4">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
         <v>16.44142755506243</v>
@@ -4571,16 +4571,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4598,19 +4598,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345.09272902505</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="C6" t="n">
-        <v>345.09272902505</v>
+        <v>479.4030114519265</v>
       </c>
       <c r="D6" t="n">
-        <v>345.09272902505</v>
+        <v>330.4686017906753</v>
       </c>
       <c r="E6" t="n">
-        <v>185.8552740195945</v>
+        <v>171.2311467852198</v>
       </c>
       <c r="F6" t="n">
-        <v>185.8552740195945</v>
+        <v>24.69658881210475</v>
       </c>
       <c r="G6" t="n">
-        <v>47.12444860221001</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>47.12444860221001</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4653,13 +4653,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>513.308066045118</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>513.308066045118</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>513.308066045118</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y6" t="n">
-        <v>513.308066045118</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4720,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4781,7 +4781,7 @@
         <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4811,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4844,10 +4844,10 @@
         <v>406.8838132313431</v>
       </c>
       <c r="X8" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C9" t="n">
-        <v>199.2900309704538</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D9" t="n">
-        <v>199.2900309704538</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E9" t="n">
-        <v>199.2900309704538</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F9" t="n">
-        <v>199.2900309704538</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G9" t="n">
-        <v>60.55920555306929</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4917,16 +4917,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4981,31 +4981,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E11" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5081,10 +5081,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>220.1101922903266</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="C12" t="n">
-        <v>220.1101922903266</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D12" t="n">
-        <v>220.1101922903266</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E12" t="n">
-        <v>220.1101922903266</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F12" t="n">
-        <v>220.1101922903266</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>220.1101922903266</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7410566979059</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>29.03990215807806</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>232.5025681519757</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="S12" t="n">
-        <v>635.2977568121051</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="T12" t="n">
-        <v>635.2977568121051</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="U12" t="n">
-        <v>427.7039745512159</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="V12" t="n">
-        <v>427.7039745512159</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="W12" t="n">
-        <v>427.7039745512159</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="X12" t="n">
-        <v>427.7039745512159</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="Y12" t="n">
-        <v>220.1101922903266</v>
+        <v>814.3015730003187</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5279,19 +5279,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M14" t="n">
-        <v>399.9799451336186</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5361,13 +5361,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4279001397708</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5695,7 +5695,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5780,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>640.636862475431</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>808.852199495499</v>
       </c>
     </row>
     <row r="22">
@@ -5935,16 +5935,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -6017,16 +6017,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X23" t="n">
         <v>19.28114311021272</v>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>192.0142610363921</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6072,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>360.2295980564601</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>360.2295980564601</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>360.2295980564601</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y24" t="n">
-        <v>360.2295980564601</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>264.262076138609</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C27" t="n">
-        <v>89.809046857482</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>118.5018269537981</v>
       </c>
       <c r="H27" t="n">
         <v>20.03527576299844</v>
@@ -6312,13 +6312,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>432.4774131586771</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>432.4774131586771</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>432.4774131586771</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>432.4774131586771</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y27" t="n">
-        <v>432.4774131586771</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6412,22 +6412,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6579,13 +6579,13 @@
         <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>401.5856725968725</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X30" t="n">
-        <v>193.7341723913397</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>35.98341002332393</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>960.7588564629629</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>313.4946457291688</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="C33" t="n">
-        <v>139.0416164480418</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="D33" t="n">
-        <v>139.0416164480418</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E33" t="n">
-        <v>139.0416164480418</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F33" t="n">
-        <v>139.0416164480418</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G33" t="n">
-        <v>139.0416164480418</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,10 +6783,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>896.5165469689757</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>896.5165469689757</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>896.5165469689757</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>661.3644387372331</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.7099827492369</v>
+        <v>417.9156620931329</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6880,28 +6880,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="37">
@@ -7123,19 +7123,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
         <v>829.5248650203655</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>548.4453565401495</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="C39" t="n">
-        <v>548.4453565401495</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="D39" t="n">
-        <v>399.5109468788983</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="E39" t="n">
-        <v>399.5109468788983</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="F39" t="n">
-        <v>252.9763889057832</v>
+        <v>29.90068300903121</v>
       </c>
       <c r="G39" t="n">
-        <v>114.2455634883987</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,7 +7260,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X39" t="n">
-        <v>756.2056553051034</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y39" t="n">
-        <v>548.4453565401495</v>
+        <v>176.4352409821462</v>
       </c>
     </row>
     <row r="40">
@@ -7354,19 +7354,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
         <v>829.5248650203655</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C41" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7418,13 +7418,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7439,22 +7439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C42" t="n">
-        <v>238.668476211275</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D42" t="n">
-        <v>238.668476211275</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="E42" t="n">
-        <v>238.668476211275</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="F42" t="n">
-        <v>238.668476211275</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="G42" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7491,19 +7491,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7521,19 +7521,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="43">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
         <v>224.0352098159517</v>
@@ -7649,16 +7649,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7685,13 +7685,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X44" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y44" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="X44" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>238.668476211275</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="C45" t="n">
-        <v>64.21544693014803</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="D45" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
         <v>435.9652341458732</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y45" t="n">
-        <v>406.8838132313431</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="46">
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7991,10 +7991,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,10 +8070,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8219,19 +8219,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,16 +8301,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,16 +8459,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>150.567170896597</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,13 +8936,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,16 +9009,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9960,16 +9960,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -10680,10 +10680,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11066,16 +11066,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>339.3481270698632</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11309,7 +11309,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>154.8597658442563</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22565,10 +22565,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>39.94924155962048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22638,13 +22638,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22674,25 +22674,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>6.532243555487014</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>185.5043079680906</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22781,19 +22781,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22838,7 +22838,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,28 +22863,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>129.1709075187387</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>59.76703334099683</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22920,7 +22920,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D8" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23084,7 +23084,7 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,28 +23100,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>68.55884401846967</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23157,13 +23157,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23264,22 +23264,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I11" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23340,16 +23340,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23358,7 +23358,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>92.46572744736828</v>
       </c>
       <c r="S12" t="n">
-        <v>86.93512052487469</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,25 +23732,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,13 +23774,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>27.26179070270005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,10 +23935,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23969,13 +23969,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>163.6758344699046</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24020,16 +24020,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>121.6254758352848</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24105,16 +24105,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>152.1876234749617</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24257,19 +24257,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>119.0371437604433</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>83.50129159232563</v>
       </c>
       <c r="C24" t="n">
-        <v>159.3477926967991</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24333,22 +24333,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24497,19 +24497,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>185.901842367224</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>78.36903218110002</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,10 +24534,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>14.75355855760485</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,22 +24567,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>121.8499558845326</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,10 +24695,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,7 +24734,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>156.9198460705935</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24819,7 +24819,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>166.8539490275962</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,7 +24917,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24959,16 +24959,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>6.725383157348171</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,19 +25005,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>83.8157998097186</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>104.8179686475939</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25053,16 +25053,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25196,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>56.38340022020472</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>14.84410631175118</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25293,10 +25293,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="38">
@@ -25397,7 +25397,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="39">
@@ -25473,7 +25473,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25482,16 +25482,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>126.8301726633803</v>
       </c>
       <c r="H39" t="n">
-        <v>18.96725938835017</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,13 +25628,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>184.2527743897702</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910244</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25679,7 +25679,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,13 +25719,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>118.9708160814717</v>
+        <v>129.0318987702889</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25761,7 +25761,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25770,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25865,7 +25865,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>149.1651971824026</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="45">
@@ -25944,13 +25944,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>99.87004982508395</v>
       </c>
       <c r="E45" t="n">
-        <v>110.3488012740662</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426098.6754554543</v>
+        <v>426098.6754554544</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448812.4506698133</v>
+        <v>448812.4506698132</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448812.4506698133</v>
+        <v>448812.4506698132</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448812.4506698133</v>
+        <v>448812.4506698132</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448812.4506698133</v>
+        <v>448812.4506698132</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426098.6754554542</v>
+        <v>426098.6754554543</v>
       </c>
     </row>
     <row r="16">
@@ -26329,25 +26329,25 @@
         <v>157852.6389047657</v>
       </c>
       <c r="H2" t="n">
+        <v>157852.6389047657</v>
+      </c>
+      <c r="I2" t="n">
         <v>157852.6389047658</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>157852.6389047657</v>
-      </c>
-      <c r="J2" t="n">
-        <v>157852.6389047658</v>
       </c>
       <c r="K2" t="n">
         <v>157852.6389047658</v>
       </c>
       <c r="L2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="M2" t="n">
         <v>157852.6389047657</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>157852.6389047658</v>
-      </c>
-      <c r="N2" t="n">
-        <v>157852.6389047657</v>
       </c>
       <c r="O2" t="n">
         <v>149869.759743185</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="D4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="E4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8029.571904401841</v>
+        <v>10902.41788433617</v>
       </c>
       <c r="C6" t="n">
-        <v>76903.32848609166</v>
+        <v>79776.17446602604</v>
       </c>
       <c r="D6" t="n">
-        <v>76903.32848609166</v>
+        <v>79776.17446602607</v>
       </c>
       <c r="E6" t="n">
-        <v>110530.9284860916</v>
+        <v>113403.7744660261</v>
       </c>
       <c r="F6" t="n">
-        <v>110530.9284860917</v>
+        <v>113403.7744660261</v>
       </c>
       <c r="G6" t="n">
-        <v>105159.685835827</v>
+        <v>108187.6589542177</v>
       </c>
       <c r="H6" t="n">
-        <v>114888.7288099942</v>
+        <v>117916.7019283848</v>
       </c>
       <c r="I6" t="n">
-        <v>114888.7288099941</v>
+        <v>117916.7019283848</v>
       </c>
       <c r="J6" t="n">
-        <v>61116.21791978474</v>
+        <v>64144.19103817534</v>
       </c>
       <c r="K6" t="n">
-        <v>114888.7288099942</v>
+        <v>117916.7019283848</v>
       </c>
       <c r="L6" t="n">
-        <v>114888.7288099941</v>
+        <v>117916.7019283848</v>
       </c>
       <c r="M6" t="n">
-        <v>114888.7288099942</v>
+        <v>117916.7019283848</v>
       </c>
       <c r="N6" t="n">
-        <v>114888.7288099941</v>
+        <v>117916.7019283848</v>
       </c>
       <c r="O6" t="n">
-        <v>110530.9284860916</v>
+        <v>113403.774466026</v>
       </c>
       <c r="P6" t="n">
-        <v>110530.9284860917</v>
+        <v>113403.774466026</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34711,10 +34711,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,10 +34790,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="P3" t="n">
         <v>70.5902951096252</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,16 +35179,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35656,13 +35656,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>91.61977832229879</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35896,7 +35896,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,10 +37400,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N39" t="n">
         <v>55.51629994036225</v>
-      </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37786,16 +37786,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38029,7 +38029,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>12.72573192223801</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>773938.2457049255</v>
+        <v>774722.3916429542</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5057753.195959995</v>
+        <v>5057753.195959994</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>47.29627918133471</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>85.4688076457952</v>
       </c>
       <c r="Y3" t="n">
         <v>205.5178444382804</v>
@@ -893,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>78.74721279771917</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,10 +989,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>8.172609644471894</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869523</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>24.55373238536389</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1376,67 +1378,67 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F11" t="n">
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>148.0918345838853</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1458,19 +1460,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,58 +1615,58 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F14" t="n">
+      <c r="T14" t="n">
+        <v>9.211010870930394</v>
+      </c>
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,14 +1846,14 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
@@ -1859,58 +1861,58 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1983,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2081,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>218.2545356023572</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>84.0572199420196</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>53.49507230234266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2369,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83.03189205754171</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2445,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>90.8316949233748</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>97.48188567889162</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>88.16415146876714</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2716,55 +2718,55 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,58 +2809,58 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>15.78865291772223</v>
+        <v>55.6659517772089</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2928,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2950,70 +2952,70 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>89.33767702581088</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>66.86520245624389</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3226,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,16 +3313,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.39471844666277</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>59.15846275699341</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3351,7 +3353,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>142.8009741436498</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,59 +3508,59 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>142.8009741436498</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>10.5133444998303</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3639,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3740,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,59 +3976,59 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>47.57501573955479</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.8944568361894</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4422,37 +4424,37 @@
         <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V3" t="n">
-        <v>774.2973583780361</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="W3" t="n">
-        <v>774.2973583780361</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="X3" t="n">
-        <v>566.7035761171468</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y3" t="n">
-        <v>359.1097938562575</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4544,7 +4546,7 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4598,19 +4600,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4623,19 +4625,19 @@
         <v>653.8560407330535</v>
       </c>
       <c r="C6" t="n">
-        <v>479.4030114519265</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="D6" t="n">
-        <v>330.4686017906753</v>
+        <v>574.3134015434382</v>
       </c>
       <c r="E6" t="n">
-        <v>171.2311467852198</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F6" t="n">
-        <v>24.69658881210475</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H6" t="n">
         <v>16.44142755506243</v>
@@ -4656,13 +4658,13 @@
         <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
+        <v>548.724319600695</v>
+      </c>
+      <c r="O6" t="n">
         <v>752.1869855945927</v>
       </c>
-      <c r="O6" t="n">
-        <v>752.6768192397923</v>
-      </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4720,10 +4722,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>110.7436296931158</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4808,16 +4810,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4838,16 +4840,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y8" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="W8" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="X8" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>822.0713777531216</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C9" t="n">
-        <v>814.3015730003187</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D9" t="n">
-        <v>665.3671633390675</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E9" t="n">
-        <v>506.1297083336119</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H9" t="n">
         <v>107.4951893506917</v>
@@ -4887,16 +4889,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>522.6827538724702</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>522.6827538724702</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>522.6827538724702</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>315.088971611581</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="Y9" t="n">
-        <v>822.0713777531216</v>
+        <v>107.4951893506917</v>
       </c>
     </row>
     <row r="10">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D11" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4775954922324</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8838132313431</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2900309704538</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5048,7 +5050,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5063,28 +5065,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>814.3015730003187</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3015730003187</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3671633390675</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,13 +5126,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
         <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>814.3015730003187</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>814.3015730003187</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T12" t="n">
-        <v>814.3015730003187</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U12" t="n">
-        <v>814.3015730003187</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V12" t="n">
-        <v>814.3015730003187</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W12" t="n">
-        <v>814.3015730003187</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X12" t="n">
-        <v>814.3015730003187</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y12" t="n">
-        <v>814.3015730003187</v>
+        <v>648.6540332037905</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E14" t="n">
-        <v>614.4775954922324</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8838132313431</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,7 +5363,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M15" t="n">
         <v>232.5025681519757</v>
@@ -5385,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X17" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="19">
@@ -5695,7 +5697,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.810259228364</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C20" t="n">
-        <v>251.810259228364</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D20" t="n">
-        <v>251.810259228364</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E20" t="n">
         <v>31.35113235729608</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>495.259035872464</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V20" t="n">
-        <v>251.810259228364</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W20" t="n">
-        <v>251.810259228364</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X20" t="n">
-        <v>251.810259228364</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.810259228364</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>640.636862475431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>466.183833194304</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>317.2494235330527</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>808.852199495499</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5935,7 +5937,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W23" t="n">
-        <v>233.7108255783361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>872.3079687193485</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="X24" t="n">
-        <v>277.6047704292607</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="Y24" t="n">
-        <v>277.6047704292607</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>257.2326523711826</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C27" t="n">
-        <v>257.2326523711826</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D27" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>118.5018269537981</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
         <v>20.03527576299844</v>
@@ -6309,46 +6311,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>773.8329276102218</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>571.6463329689877</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="Y27" t="n">
-        <v>257.2326523711826</v>
+        <v>343.4227147053767</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6412,22 +6414,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>710.516763498309</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>710.516763498309</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X29" t="n">
-        <v>710.516763498309</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35.98341002332393</v>
+        <v>75.50937722860556</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>243.8349102288568</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X30" t="n">
-        <v>35.98341002332393</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.98341002332393</v>
+        <v>75.50937722860556</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>417.9156620931329</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C33" t="n">
-        <v>417.9156620931329</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D33" t="n">
-        <v>417.9156620931329</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E33" t="n">
-        <v>417.9156620931329</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>896.5165469689757</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>896.5165469689757</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>896.5165469689757</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>661.3644387372331</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>417.9156620931329</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X33" t="n">
-        <v>417.9156620931329</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y33" t="n">
-        <v>417.9156620931329</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6874,34 +6876,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>743.5980286395683</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>486.9119902784999</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C36" t="n">
-        <v>312.4589609973729</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D36" t="n">
-        <v>163.5245513361216</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y36" t="n">
-        <v>655.1273272985679</v>
+        <v>562.4161926976942</v>
       </c>
     </row>
     <row r="37">
@@ -7123,19 +7125,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
         <v>829.5248650203655</v>
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.4352409821462</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C39" t="n">
-        <v>176.4352409821462</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D39" t="n">
-        <v>176.4352409821462</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="E39" t="n">
-        <v>176.4352409821462</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>29.90068300903121</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7262,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7287,16 +7289,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>384.2867411876791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>176.4352409821462</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.4352409821462</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7356,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7412,10 +7414,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7439,22 +7441,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>199.2900309704538</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C42" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7491,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7521,16 +7523,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V42" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W42" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="V42" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="W42" t="n">
+      <c r="X42" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="X42" t="n">
-        <v>199.2900309704538</v>
       </c>
       <c r="Y42" t="n">
         <v>199.2900309704538</v>
@@ -7588,16 +7590,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>453.0030327087026</v>
+      </c>
+      <c r="C44" t="n">
+        <v>453.0030327087026</v>
+      </c>
+      <c r="D44" t="n">
+        <v>453.0030327087026</v>
+      </c>
+      <c r="E44" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="C44" t="n">
+      <c r="F44" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="D44" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E44" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F44" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7649,49 +7651,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>65.2511316619439</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>65.2511316619439</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M45" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
         <v>16.44142755506243</v>
@@ -7843,13 +7845,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P3" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,16 +8306,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8465,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8547,7 +8549,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8696,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,16 +8774,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9254,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9720,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,10 +11153,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M45" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22565,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>179.3248901303182</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>185.5043079680906</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>120.3041775576823</v>
       </c>
       <c r="Y3" t="n">
         <v>0.1648513390239543</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22838,7 +22840,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,10 +22865,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>68.69785276691958</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22875,10 +22877,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>129.1709075187387</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.6226874585631</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C8" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23036,10 +23038,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23078,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23100,22 +23102,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23145,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>175.6109963094577</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23160,10 +23162,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23264,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>158.4546847345297</v>
+        <v>308.3238026756795</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23303,10 +23305,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>18.44134906598202</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23346,19 +23348,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>92.46572744736828</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,22 +23503,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>213.8848386932009</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,16 +23627,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23747,13 +23749,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.725383157348171</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23792,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23871,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23935,10 +23937,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23969,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>163.6758344699046</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,16 +24022,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>61.00025583355162</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>152.1876234749617</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24175,10 +24177,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24257,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83.50129159232563</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24333,22 +24335,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>80.85147618046302</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>185.901842367224</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,10 +24536,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>14.75355855760485</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>83.51901963507068</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24652,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>121.8499558845326</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,10 +24697,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,10 +24733,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>156.9198460705935</v>
+        <v>117.0425472111068</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24816,16 +24818,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>77.19550662405646</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,19 +25007,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>104.8179686475939</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25053,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25114,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>150.6253511395826</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>107.3747208928739</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25239,7 +25241,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>14.84410631175118</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25394,10 +25396,10 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>14.84410631175118</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>126.8301726633803</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25527,16 +25529,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25628,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897702</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
-        <v>200.9102526910244</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25679,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>158.2215652569457</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>129.0318987702889</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25761,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25773,7 +25775,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7700698467189</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>99.87004982508395</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>426098.6754554543</v>
+        <v>426098.6754554542</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426098.6754554544</v>
+        <v>426098.6754554542</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448812.4506698133</v>
+        <v>448812.4506698132</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448812.4506698132</v>
+        <v>448812.4506698133</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448812.4506698132</v>
+        <v>448812.4506698134</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426098.6754554543</v>
+        <v>426098.6754554542</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>426098.6754554543</v>
+        <v>426098.6754554542</v>
       </c>
     </row>
   </sheetData>
@@ -26335,19 +26337,19 @@
         <v>157852.6389047658</v>
       </c>
       <c r="J2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="K2" t="n">
         <v>157852.6389047657</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>157852.6389047657</v>
+      </c>
+      <c r="M2" t="n">
         <v>157852.6389047658</v>
       </c>
-      <c r="L2" t="n">
-        <v>157852.6389047658</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>157852.6389047657</v>
-      </c>
-      <c r="N2" t="n">
-        <v>157852.6389047658</v>
       </c>
       <c r="O2" t="n">
         <v>149869.759743185</v>
@@ -26421,13 +26423,13 @@
         <v>23970.50033531152</v>
       </c>
       <c r="D4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="E4" t="n">
         <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
         <v>25282.26821261927</v>
@@ -26454,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
+        <v>23970.50033531153</v>
+      </c>
+      <c r="P4" t="n">
         <v>23970.50033531152</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23970.50033531153</v>
       </c>
     </row>
     <row r="5">
@@ -26522,16 +26524,16 @@
         <v>10902.41788433617</v>
       </c>
       <c r="C6" t="n">
-        <v>79776.17446602604</v>
+        <v>79776.17446602602</v>
       </c>
       <c r="D6" t="n">
-        <v>79776.17446602607</v>
+        <v>79776.17446602599</v>
       </c>
       <c r="E6" t="n">
-        <v>113403.7744660261</v>
+        <v>113403.774466026</v>
       </c>
       <c r="F6" t="n">
-        <v>113403.7744660261</v>
+        <v>113403.774466026</v>
       </c>
       <c r="G6" t="n">
         <v>108187.6589542177</v>
@@ -26543,7 +26545,7 @@
         <v>117916.7019283848</v>
       </c>
       <c r="J6" t="n">
-        <v>64144.19103817534</v>
+        <v>64144.1910381754</v>
       </c>
       <c r="K6" t="n">
         <v>117916.7019283848</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P3" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O6" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35178,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35185,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35267,7 +35269,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="M12" t="n">
         <v>148.1480627106907</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,10 +35731,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35896,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.8112771299739</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36440,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,10 +37873,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>774722.3916429542</v>
+        <v>670489.893379511</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443407</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.0044347</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5057753.195959994</v>
+        <v>5057753.195959995</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>85.4688076457952</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,59 +895,59 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>78.74721279771917</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1150,46 +1150,46 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>24.55373238536389</v>
+        <v>103.4451850515748</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>205.5178444382804</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>148.0918345838853</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>88.52309003923386</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.211010870930398</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T14" t="n">
-        <v>9.211010870930394</v>
-      </c>
-      <c r="U14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.6221430745479</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V15" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W15" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29.05241763862477</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>64.07946152386697</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>190.3453970742849</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>84.0572199420196</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>84.14750936819277</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,11 +2371,11 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>200.3360962888297</v>
       </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>63.14223173826442</v>
       </c>
       <c r="S24" t="n">
-        <v>90.8316949233748</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,23 +2554,23 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>88.16415146876714</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>166.8130034527129</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>240.2580556792261</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>55.6659517772089</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>162.4417619616646</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,26 +3028,26 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -3082,13 +3082,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>89.33767702581088</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>59.15846275699341</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>123.4225424657643</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>142.8009741436498</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>185.12254643689</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3675,49 +3675,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,64 +3742,64 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="D41" t="n">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G41" t="n">
+      <c r="V41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>69.78557832229613</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E44" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="G44" t="n">
         <v>205.5178444382804</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>181.0201173812374</v>
+        <v>182.8712838381066</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4342,10 +4342,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4354,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U2" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V2" t="n">
-        <v>47.90708355515102</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W2" t="n">
-        <v>47.90708355515102</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X2" t="n">
-        <v>47.90708355515102</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4415,19 +4415,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>518.7152536647734</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>518.7152536647734</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V3" t="n">
-        <v>311.1214714038841</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W3" t="n">
-        <v>311.1214714038841</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X3" t="n">
-        <v>224.7893424687375</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4512,28 +4512,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4573,13 +4573,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653.8560407330535</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>653.8560407330535</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>574.3134015434382</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>415.0759465379826</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
         <v>16.44142755506243</v>
@@ -4655,16 +4655,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4676,22 +4676,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4749,28 +4749,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4810,13 +4810,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4828,28 +4828,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107.4951893506917</v>
+        <v>442.9944178459946</v>
       </c>
       <c r="C9" t="n">
-        <v>107.4951893506917</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="D9" t="n">
-        <v>107.4951893506917</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="E9" t="n">
-        <v>107.4951893506917</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="F9" t="n">
-        <v>107.4951893506917</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G9" t="n">
-        <v>107.4951893506917</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4913,22 +4913,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>522.6827538724702</v>
+        <v>442.9944178459946</v>
       </c>
       <c r="U9" t="n">
-        <v>522.6827538724702</v>
+        <v>442.9944178459946</v>
       </c>
       <c r="V9" t="n">
-        <v>522.6827538724702</v>
+        <v>442.9944178459946</v>
       </c>
       <c r="W9" t="n">
-        <v>315.088971611581</v>
+        <v>442.9944178459946</v>
       </c>
       <c r="X9" t="n">
-        <v>107.4951893506917</v>
+        <v>442.9944178459946</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.4951893506917</v>
+        <v>442.9944178459946</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>255.5008658160403</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>499.0663215028962</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C12" t="n">
-        <v>324.6132922217692</v>
+        <v>255.6754663591572</v>
       </c>
       <c r="D12" t="n">
-        <v>175.6788825605179</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5126,10 +5126,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M12" t="n">
         <v>219.90409354896</v>
-      </c>
-      <c r="M12" t="n">
-        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
         <v>366.5706756325438</v>
@@ -5144,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V12" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W12" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X12" t="n">
-        <v>648.6540332037905</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y12" t="n">
-        <v>648.6540332037905</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5241,10 +5241,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.51141680214578</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C14" t="n">
-        <v>28.51141680214578</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D14" t="n">
-        <v>28.51141680214578</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E14" t="n">
-        <v>28.51141680214578</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="F14" t="n">
-        <v>28.51141680214578</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H14" t="n">
         <v>28.51141680214578</v>
@@ -5281,10 +5281,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5305,25 +5305,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
+        <v>660.5968149695918</v>
+      </c>
+      <c r="T14" t="n">
+        <v>660.5968149695918</v>
+      </c>
+      <c r="U14" t="n">
+        <v>660.5968149695918</v>
+      </c>
+      <c r="V14" t="n">
+        <v>660.5968149695918</v>
+      </c>
+      <c r="W14" t="n">
         <v>453.0030327087026</v>
       </c>
-      <c r="T14" t="n">
-        <v>443.6989813239244</v>
-      </c>
-      <c r="U14" t="n">
-        <v>236.1051990630351</v>
-      </c>
-      <c r="V14" t="n">
-        <v>28.51141680214578</v>
-      </c>
-      <c r="W14" t="n">
-        <v>28.51141680214578</v>
-      </c>
       <c r="X14" t="n">
-        <v>28.51141680214578</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.51141680214578</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>463.3441176391537</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>314.4097079779024</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5360,19 +5360,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
         <v>822.0713777531216</v>
@@ -5387,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5475,13 +5475,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F18" t="n">
         <v>20.03527576299844</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>798.1608972515351</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>798.1608972515351</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>569.9372789879242</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="W18" t="n">
-        <v>257.2326523711826</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="X18" t="n">
-        <v>49.38115216564972</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="Y18" t="n">
-        <v>49.38115216564972</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5700,25 +5700,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.7999090013961</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H20" t="n">
         <v>31.35113235729608</v>
@@ -5782,22 +5782,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>761.6974622895962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V20" t="n">
-        <v>518.2486856454962</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W20" t="n">
-        <v>274.7999090013961</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X20" t="n">
-        <v>274.7999090013961</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.7999090013961</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="21">
@@ -5843,13 +5843,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5864,16 +5864,16 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>705.7335281915883</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>470.5814199598456</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5940,22 +5940,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
         <v>31.35113235729608</v>
@@ -6019,7 +6019,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
         <v>761.6974622895962</v>
@@ -6031,10 +6031,10 @@
         <v>761.6974622895962</v>
       </c>
       <c r="X23" t="n">
-        <v>761.6974622895962</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y23" t="n">
-        <v>761.6974622895962</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>501.9060370580465</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>900.2771234517833</v>
       </c>
       <c r="S24" t="n">
-        <v>872.3079687193485</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="T24" t="n">
-        <v>670.1213740781145</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U24" t="n">
-        <v>670.1213740781145</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V24" t="n">
-        <v>670.1213740781145</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W24" t="n">
-        <v>670.1213740781145</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X24" t="n">
-        <v>670.1213740781145</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>670.1213740781145</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6168,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>587.3248651012614</v>
+      </c>
+      <c r="C26" t="n">
+        <v>587.3248651012614</v>
+      </c>
+      <c r="D26" t="n">
+        <v>587.3248651012614</v>
+      </c>
+      <c r="E26" t="n">
+        <v>343.8760884571613</v>
+      </c>
+      <c r="F26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>343.4227147053767</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C27" t="n">
-        <v>168.9696854242497</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G27" t="n">
         <v>20.03527576299844</v>
@@ -6311,46 +6311,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>773.8329276102218</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>571.6463329689877</v>
+        <v>622.1418276757365</v>
       </c>
       <c r="U27" t="n">
-        <v>343.4227147053767</v>
+        <v>393.9182094121256</v>
       </c>
       <c r="V27" t="n">
-        <v>343.4227147053767</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="W27" t="n">
-        <v>343.4227147053767</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="X27" t="n">
-        <v>343.4227147053767</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="Y27" t="n">
-        <v>343.4227147053767</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="28">
@@ -6414,13 +6414,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X29" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y29" t="n">
-        <v>495.259035872464</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>75.50937722860556</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>526.7184526376595</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2696759935595</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>283.2696759935595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>75.50937722860556</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6660,7 +6660,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,28 +6721,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
         <v>262.7299197543128</v>
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>284.787934186969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W33" t="n">
-        <v>790.6398109613051</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>582.7883107557723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>502.6601697108322</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C36" t="n">
-        <v>328.2071404297052</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D36" t="n">
-        <v>179.2727307684539</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,16 +7025,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>562.4161926976942</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W36" t="n">
-        <v>562.4161926976942</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X36" t="n">
-        <v>562.4161926976942</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y36" t="n">
-        <v>562.4161926976942</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>486.9119902784999</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C39" t="n">
-        <v>312.4589609973729</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D39" t="n">
-        <v>163.5245513361216</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7262,43 +7262,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.1273272985679</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C41" t="n">
-        <v>639.2227743377304</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7414,16 +7414,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7441,22 +7441,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.07469395038575</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>86.93191070889691</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7496,13 +7496,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>29.03990215807806</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
         <v>639.4279001397708</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X42" t="n">
-        <v>406.8838132313431</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.2900309704538</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="43">
@@ -7596,10 +7596,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C44" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D44" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7657,7 +7657,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
         <v>672.8764276104736</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7733,46 +7733,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T45" t="n">
-        <v>639.2227743377304</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="U45" t="n">
-        <v>431.628992076841</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="V45" t="n">
-        <v>224.0352098159517</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="W45" t="n">
-        <v>16.44142755506243</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
     </row>
     <row r="46">
@@ -7788,13 +7788,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G46" t="n">
         <v>16.44142755506243</v>
@@ -7990,13 +7990,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>164.1205091169155</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8230,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8303,7 +8303,7 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8312,10 +8312,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8467,7 +8467,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8774,13 +8774,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,7 +9491,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2508595994748</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9971,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11144,7 +11144,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11153,7 +11153,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>155.3219763666824</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11381,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22567,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>179.3248901303182</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22594,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22606,16 +22606,16 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22685,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>120.3041775576823</v>
+        <v>85.7229128969819</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>215.208520489361</v>
       </c>
     </row>
     <row r="6">
@@ -22862,25 +22862,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>68.69785276691958</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22916,19 +22916,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>201.7137242822432</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23038,10 +23038,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23068,16 +23068,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>220.1946534677488</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>175.6109963094577</v>
+        <v>96.71954364324681</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23162,10 +23162,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23275,7 +23275,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>308.3238026756795</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
         <v>164.2132562401886</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.44134906598202</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>84.18540894908188</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23357,7 +23357,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23402,7 +23402,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>330.2637912448367</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>213.8848386932009</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>23.08635591376787</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23627,22 +23627,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23788,19 +23788,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>137.4807660112426</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23822,7 +23822,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>107.6037095799709</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23873,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>131.2109657279547</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24022,16 +24022,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>61.00025583355162</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24104,7 +24104,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>141.8841621389552</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>121.6254758352847</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,10 +24217,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24259,10 +24259,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>22.7597532753017</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>37.01560241437871</v>
       </c>
       <c r="S24" t="n">
-        <v>80.85147618046302</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24408,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>326.5413387258914</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24490,16 +24490,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24524,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>83.51901963507068</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>33.35172524210873</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>166.6179900624853</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>117.0425472111068</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>70.35882518776066</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24934,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>156.9351659141304</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>77.19550662405646</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25116,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,19 +25207,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>107.3747208928739</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>24.02252309887449</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25408,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>289.0078237680873</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>14.84410631175118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>40.81883564408477</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25630,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>184.2527743897702</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25681,13 +25681,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>158.2215652569457</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25718,10 +25718,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>67.5579388409145</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25757,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25766,16 +25766,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25836,13 +25836,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25870,13 +25870,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
-        <v>360.7700698467189</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>237.8052177150865</v>
       </c>
       <c r="G44" t="n">
         <v>209.7848930768546</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>19.14461131358425</v>
+        <v>17.29344485671501</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>426098.6754554542</v>
+        <v>426098.6754554544</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>426098.6754554542</v>
+        <v>426098.6754554543</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>426098.6754554543</v>
+        <v>426098.6754554544</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426098.6754554543</v>
+        <v>426098.6754554542</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426098.6754554542</v>
+        <v>426098.6754554543</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448812.4506698132</v>
+        <v>448812.4506698133</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448812.4506698132</v>
+        <v>448812.4506698131</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448812.4506698134</v>
+        <v>448812.4506698131</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>426098.6754554542</v>
+        <v>426098.6754554543</v>
       </c>
     </row>
   </sheetData>
@@ -26331,16 +26331,16 @@
         <v>157852.6389047657</v>
       </c>
       <c r="H2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="I2" t="n">
         <v>157852.6389047658</v>
       </c>
       <c r="J2" t="n">
+        <v>157852.6389047657</v>
+      </c>
+      <c r="K2" t="n">
         <v>157852.6389047658</v>
-      </c>
-      <c r="K2" t="n">
-        <v>157852.6389047657</v>
       </c>
       <c r="L2" t="n">
         <v>157852.6389047657</v>
@@ -26349,7 +26349,7 @@
         <v>157852.6389047658</v>
       </c>
       <c r="N2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="O2" t="n">
         <v>149869.759743185</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10902.41788433617</v>
+        <v>-1735.744270524272</v>
       </c>
       <c r="C6" t="n">
-        <v>79776.17446602602</v>
+        <v>67138.01231116548</v>
       </c>
       <c r="D6" t="n">
-        <v>79776.17446602599</v>
+        <v>67138.01231116551</v>
       </c>
       <c r="E6" t="n">
-        <v>113403.774466026</v>
+        <v>100765.6123111655</v>
       </c>
       <c r="F6" t="n">
-        <v>113403.774466026</v>
+        <v>100765.6123111655</v>
       </c>
       <c r="G6" t="n">
-        <v>108187.6589542177</v>
+        <v>95969.64833417721</v>
       </c>
       <c r="H6" t="n">
-        <v>117916.7019283848</v>
+        <v>105698.6913083444</v>
       </c>
       <c r="I6" t="n">
-        <v>117916.7019283848</v>
+        <v>105698.6913083444</v>
       </c>
       <c r="J6" t="n">
-        <v>64144.1910381754</v>
+        <v>51926.18041813491</v>
       </c>
       <c r="K6" t="n">
-        <v>117916.7019283848</v>
+        <v>105698.6913083444</v>
       </c>
       <c r="L6" t="n">
-        <v>117916.7019283848</v>
+        <v>105698.6913083443</v>
       </c>
       <c r="M6" t="n">
-        <v>117916.7019283848</v>
+        <v>105698.6913083444</v>
       </c>
       <c r="N6" t="n">
-        <v>117916.7019283848</v>
+        <v>105698.6913083444</v>
       </c>
       <c r="O6" t="n">
-        <v>113403.774466026</v>
+        <v>100765.6123111655</v>
       </c>
       <c r="P6" t="n">
-        <v>113403.774466026</v>
+        <v>100765.6123111655</v>
       </c>
     </row>
   </sheetData>
@@ -34710,13 +34710,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34950,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35023,7 +35023,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35187,7 +35187,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>148.1480627106907</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O18" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36211,7 +36211,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9091475161415</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36691,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>240.0046611659691</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37873,7 +37873,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38025,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
